--- a/Memorando 620.xlsx
+++ b/Memorando 620.xlsx
@@ -1420,7 +1420,7 @@
       <c r="C22" s="31" t="n"/>
       <c r="D22" s="94" t="inlineStr">
         <is>
-          <t>COTOVELO/JOELHO 90 PVC ROSCAVEL 3/4</t>
+          <t>TUBO COLETOR ESGOTO PVC OCRE PB JEI DN 400MM X 6M</t>
         </is>
       </c>
       <c r="E22" s="95" t="n"/>
@@ -1441,14 +1441,14 @@
       <c r="C23" s="31" t="n"/>
       <c r="D23" s="114" t="inlineStr">
         <is>
-          <t>CAFÉ EM PO PACOTE C/ 500G - MARCA QUITADA, BRASILEIRO OU SIMILAR</t>
+          <t>TUBO PRESSURIZADO PVC OCRE PBJEI DN 300MM - 1MPA COMPRIMENTO 6M</t>
         </is>
       </c>
       <c r="E23" s="112" t="n"/>
       <c r="F23" s="30" t="n"/>
       <c r="G23" s="34" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -1458,14 +1458,14 @@
       <c r="C24" s="31" t="n"/>
       <c r="D24" s="115" t="inlineStr">
         <is>
-          <t>AREIA LAVADA (M³)</t>
+          <t>TUBO PRESSURIZADO PVC OCRE PBJEI DN 100MM  - 1MPA COMPRIMENTO 6M</t>
         </is>
       </c>
       <c r="E24" s="116" t="n"/>
       <c r="F24" s="30" t="n"/>
       <c r="G24" s="35" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -1473,52 +1473,28 @@
       <c r="A25" s="10" t="n"/>
       <c r="B25" s="20" t="n"/>
       <c r="C25" s="22" t="n"/>
-      <c r="D25" s="117" t="inlineStr">
-        <is>
-          <t>ARQUIVO MORTO POLIONDA AZUL - PRE  MONTADO</t>
-        </is>
-      </c>
+      <c r="D25" s="117" t="n"/>
       <c r="E25" s="112" t="n"/>
       <c r="F25" s="11" t="n"/>
-      <c r="G25" s="12" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+      <c r="G25" s="12" t="inlineStr"/>
     </row>
     <row r="26" ht="15.95" customFormat="1" customHeight="1" s="13">
       <c r="A26" s="11" t="n"/>
       <c r="B26" s="21" t="n"/>
       <c r="C26" s="32" t="n"/>
-      <c r="D26" s="117" t="inlineStr">
-        <is>
-          <t>CAPA DE PAPEL P/CD</t>
-        </is>
-      </c>
+      <c r="D26" s="117" t="n"/>
       <c r="E26" s="112" t="n"/>
       <c r="F26" s="11" t="n"/>
-      <c r="G26" s="12" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+      <c r="G26" s="12" t="inlineStr"/>
     </row>
     <row r="27" ht="15.95" customFormat="1" customHeight="1" s="13">
       <c r="A27" s="10" t="n"/>
       <c r="B27" s="20" t="n"/>
       <c r="C27" s="22" t="n"/>
-      <c r="D27" s="117" t="inlineStr">
-        <is>
-          <t>ESPONJA DE LÃ DE AÇO - 60G PCT C/ 8 UNIDADES</t>
-        </is>
-      </c>
+      <c r="D27" s="117" t="n"/>
       <c r="E27" s="112" t="n"/>
       <c r="F27" s="11" t="n"/>
-      <c r="G27" s="12" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
+      <c r="G27" s="12" t="inlineStr"/>
     </row>
     <row r="28" ht="15.95" customFormat="1" customHeight="1" s="13">
       <c r="A28" s="10" t="n"/>
